--- a/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a50_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a50_reformulation.xlsx
@@ -51,7 +51,7 @@
     <t>num quad cons</t>
   </si>
   <si>
-    <t>OPTIMAL</t>
+    <t>TIME_LIMIT</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2842.296041017098</v>
+        <v>-1442.4032829918265</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>9.611728021278704</v>
       </c>
       <c r="D2">
-        <v>2623.629248959</v>
+        <v>5710.12178695</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2822.646659025789</v>
+        <v>-1440.2106322599902</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>9.110605400142823</v>
       </c>
       <c r="D3">
-        <v>2627.409121114</v>
+        <v>5737.917843119</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-2833.9428537797476</v>
+        <v>-1334.489771790431</v>
       </c>
       <c r="C4">
-        <v>9.627872706323614e-14</v>
+        <v>19.194195800119036</v>
       </c>
       <c r="D4">
-        <v>2633.271421776</v>
+        <v>5541.354182354</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-2831.439230886428</v>
+        <v>-1439.5884369399998</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>9.681649625434384</v>
       </c>
       <c r="D5">
-        <v>2612.675739872</v>
+        <v>5849.72208816</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-2827.7027437026527</v>
+        <v>-1449.8592891489982</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>8.45484907740723</v>
       </c>
       <c r="D6">
-        <v>2630.775747326</v>
+        <v>5695.82920966</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-2814.646805647225</v>
+        <v>-1429.6423532131853</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>9.77376211826315</v>
       </c>
       <c r="D7">
-        <v>2625.600918305</v>
+        <v>5651.239159975</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-2835.7587958407307</v>
+        <v>-1276.6756221850605</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>24.400064142381794</v>
       </c>
       <c r="D8">
-        <v>2625.45821454</v>
+        <v>5840.649874044</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-2809.417958927004</v>
+        <v>-1315.54388657078</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>19.11427061444898</v>
       </c>
       <c r="D9">
-        <v>2640.960564687</v>
+        <v>5853.535549383</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-2818.3868086468365</v>
+        <v>-1299.8603260651262</v>
       </c>
       <c r="C10">
-        <v>4.8405068050767084e-14</v>
+        <v>19.87148461062062</v>
       </c>
       <c r="D10">
-        <v>2623.071933711</v>
+        <v>5906.744287678</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-2843.787964590019</v>
+        <v>-1265.0477944423028</v>
       </c>
       <c r="C11">
-        <v>1.599090215405732e-14</v>
+        <v>25.690724567472962</v>
       </c>
       <c r="D11">
-        <v>2600.937155582</v>
+        <v>5625.023825159</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
